--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_捷豹组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -294,6 +294,20 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>通过</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在测</t>
+    <rPh sb="0" eb="1">
+      <t>zai'ce</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -528,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="299">
+  <cellStyleXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1434,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1540,7 +1584,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="299">
+  <cellStyles count="309">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1693,6 +1737,11 @@
     <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1840,6 +1889,11 @@
     <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2185,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2310,8 +2364,12 @@
       <c r="L2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
+      <c r="M2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="37">
+        <v>42527</v>
+      </c>
       <c r="O2" s="14" t="s">
         <v>35</v>
       </c>
@@ -2356,8 +2414,12 @@
       <c r="L3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
+      <c r="M3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="37">
+        <v>42528</v>
+      </c>
       <c r="O3" s="14" t="s">
         <v>35</v>
       </c>
@@ -2400,8 +2462,12 @@
       <c r="L4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
+      <c r="M4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="37">
+        <v>42528</v>
+      </c>
       <c r="O4" s="14" t="s">
         <v>35</v>
       </c>
@@ -2446,8 +2512,12 @@
       <c r="L5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
+      <c r="M5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="37">
+        <v>42527</v>
+      </c>
       <c r="O5" s="14" t="s">
         <v>35</v>
       </c>

--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_捷豹组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -302,9 +302,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在测</t>
+    <t>数据脚本</t>
     <rPh sb="0" eb="1">
-      <t>zai'ce</t>
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册来源_捷豹组.sql</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lai'yuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <rPh sb="0" eb="1">
+      <t>feng'y'p</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -542,7 +565,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="309">
+  <cellStyleXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1464,6 +1487,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1584,7 +1613,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="309">
+  <cellStyles count="311">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1742,6 +1771,7 @@
     <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1894,6 +1924,7 @@
     <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2239,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2379,7 +2410,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -2404,7 +2435,9 @@
       <c r="H3" s="37">
         <v>42525</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="J3" s="14" t="s">
         <v>38</v>
       </c>
@@ -2415,7 +2448,7 @@
         <v>34</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3" s="37">
         <v>42528</v>
@@ -2425,7 +2458,9 @@
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="R3" s="32" t="s">
+        <v>50</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
@@ -2455,7 +2490,9 @@
         <v>42523</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="K4" s="12" t="s">
         <v>43</v>
       </c>
@@ -2463,7 +2500,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="37">
         <v>42528</v>
